--- a/outcome/appendix/data/forecast/Hepatitis A.xlsx
+++ b/outcome/appendix/data/forecast/Hepatitis A.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1232.87407618065</v>
+        <v>1195.28238206247</v>
       </c>
       <c r="C2" t="n">
-        <v>505.06514275776</v>
+        <v>538.780259804592</v>
       </c>
       <c r="D2" t="n">
-        <v>505.06514275776</v>
+        <v>538.780259804592</v>
       </c>
       <c r="E2" t="n">
-        <v>2033.17293342394</v>
+        <v>1917.17225465559</v>
       </c>
       <c r="F2" t="n">
-        <v>2033.17293342394</v>
+        <v>1917.17225465559</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>1251</v>
       </c>
       <c r="I2" t="n">
-        <v>-18.1259238193525</v>
+        <v>-55.7176179375263</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>906.923971128681</v>
+        <v>902.610829053705</v>
       </c>
       <c r="C3" t="n">
-        <v>128.407728120705</v>
+        <v>200.342678623557</v>
       </c>
       <c r="D3" t="n">
-        <v>128.407728120705</v>
+        <v>200.342678623557</v>
       </c>
       <c r="E3" t="n">
-        <v>1631.1966219545</v>
+        <v>1555.863857163</v>
       </c>
       <c r="F3" t="n">
-        <v>1631.1966219545</v>
+        <v>1555.863857163</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>1295</v>
       </c>
       <c r="I3" t="n">
-        <v>-388.076028871319</v>
+        <v>-392.389170946295</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>1648.09233950497</v>
+        <v>1599.7447279519</v>
       </c>
       <c r="C4" t="n">
-        <v>890.564362747489</v>
+        <v>916.435274642346</v>
       </c>
       <c r="D4" t="n">
-        <v>890.564362747489</v>
+        <v>916.435274642346</v>
       </c>
       <c r="E4" t="n">
-        <v>2409.69574582284</v>
+        <v>2286.73032211745</v>
       </c>
       <c r="F4" t="n">
-        <v>2409.69574582284</v>
+        <v>2286.73032211745</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>1529</v>
       </c>
       <c r="I4" t="n">
-        <v>119.092339504967</v>
+        <v>70.7447279519015</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>1520.24012445329</v>
+        <v>1483.6424146165</v>
       </c>
       <c r="C5" t="n">
-        <v>783.628052225994</v>
+        <v>819.19963782385</v>
       </c>
       <c r="D5" t="n">
-        <v>783.628052225994</v>
+        <v>819.19963782385</v>
       </c>
       <c r="E5" t="n">
-        <v>2282.79376368677</v>
+        <v>2171.47990207051</v>
       </c>
       <c r="F5" t="n">
-        <v>2282.79376368677</v>
+        <v>2171.47990207051</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>1187</v>
       </c>
       <c r="I5" t="n">
-        <v>333.240124453294</v>
+        <v>296.642414616497</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>1508.05494035113</v>
+        <v>1490.13004215888</v>
       </c>
       <c r="C6" t="n">
-        <v>753.874980867373</v>
+        <v>809.797910234587</v>
       </c>
       <c r="D6" t="n">
-        <v>753.874980867373</v>
+        <v>809.797910234587</v>
       </c>
       <c r="E6" t="n">
-        <v>2319.05216892499</v>
+        <v>2221.57176350169</v>
       </c>
       <c r="F6" t="n">
-        <v>2319.05216892499</v>
+        <v>2221.57176350169</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>1100</v>
       </c>
       <c r="I6" t="n">
-        <v>408.054940351135</v>
+        <v>390.130042158876</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>1387.56087163711</v>
+        <v>1398.57379464482</v>
       </c>
       <c r="C7" t="n">
-        <v>643.067093831337</v>
+        <v>726.790563681254</v>
       </c>
       <c r="D7" t="n">
-        <v>643.067093831337</v>
+        <v>726.790563681254</v>
       </c>
       <c r="E7" t="n">
-        <v>2140.24855420431</v>
+        <v>2076.95956813671</v>
       </c>
       <c r="F7" t="n">
-        <v>2140.24855420431</v>
+        <v>2076.95956813671</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>1249</v>
       </c>
       <c r="I7" t="n">
-        <v>138.560871637112</v>
+        <v>149.573794644822</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>1508.90431300236</v>
+        <v>1543.07537711591</v>
       </c>
       <c r="C8" t="n">
-        <v>792.995963823724</v>
+        <v>897.30788376085</v>
       </c>
       <c r="D8" t="n">
-        <v>792.995963823724</v>
+        <v>897.30788376085</v>
       </c>
       <c r="E8" t="n">
-        <v>2273.7071284859</v>
+        <v>2232.95785854473</v>
       </c>
       <c r="F8" t="n">
-        <v>2273.7071284859</v>
+        <v>2232.95785854473</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>1401</v>
       </c>
       <c r="I8" t="n">
-        <v>107.904313002364</v>
+        <v>142.075377115906</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1646.39707083416</v>
+        <v>1683.62535564002</v>
       </c>
       <c r="C9" t="n">
-        <v>894.638422948701</v>
+        <v>1005.51821007496</v>
       </c>
       <c r="D9" t="n">
-        <v>894.638422948701</v>
+        <v>1005.51821007496</v>
       </c>
       <c r="E9" t="n">
-        <v>2358.69004752538</v>
+        <v>2326.44862421777</v>
       </c>
       <c r="F9" t="n">
-        <v>2358.69004752538</v>
+        <v>2326.44862421777</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>1401</v>
       </c>
       <c r="I9" t="n">
-        <v>245.397070834159</v>
+        <v>282.625355640025</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>1598.91681800981</v>
+        <v>1586.23205246975</v>
       </c>
       <c r="C10" t="n">
-        <v>756.407604494343</v>
+        <v>827.186893732313</v>
       </c>
       <c r="D10" t="n">
-        <v>756.407604494343</v>
+        <v>827.186893732313</v>
       </c>
       <c r="E10" t="n">
-        <v>2359.58138131487</v>
+        <v>2273.32873221582</v>
       </c>
       <c r="F10" t="n">
-        <v>2359.58138131487</v>
+        <v>2273.32873221582</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>1335</v>
       </c>
       <c r="I10" t="n">
-        <v>263.916818009808</v>
+        <v>251.232052469748</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1308.02497157887</v>
+        <v>1352.74354701107</v>
       </c>
       <c r="C11" t="n">
-        <v>548.10822260731</v>
+        <v>666.660078999609</v>
       </c>
       <c r="D11" t="n">
-        <v>548.10822260731</v>
+        <v>666.660078999609</v>
       </c>
       <c r="E11" t="n">
-        <v>2067.77758619091</v>
+        <v>2037.85541686261</v>
       </c>
       <c r="F11" t="n">
-        <v>2067.77758619091</v>
+        <v>2037.85541686261</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>1181</v>
       </c>
       <c r="I11" t="n">
-        <v>127.02497157887</v>
+        <v>171.74354701107</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1320.74438544533</v>
+        <v>1343.3585681213</v>
       </c>
       <c r="C12" t="n">
-        <v>561.720498520858</v>
+        <v>658.325591467614</v>
       </c>
       <c r="D12" t="n">
-        <v>561.720498520858</v>
+        <v>658.325591467614</v>
       </c>
       <c r="E12" t="n">
-        <v>2099.96627462813</v>
+        <v>2047.35142551131</v>
       </c>
       <c r="F12" t="n">
-        <v>2099.96627462813</v>
+        <v>2047.35142551131</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>1243</v>
       </c>
       <c r="I12" t="n">
-        <v>77.7443854453265</v>
+        <v>100.358568121303</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1350.5552616251</v>
+        <v>1347.14369268813</v>
       </c>
       <c r="C13" t="n">
-        <v>566.638526035881</v>
+        <v>633.03099984013</v>
       </c>
       <c r="D13" t="n">
-        <v>566.638526035881</v>
+        <v>633.03099984013</v>
       </c>
       <c r="E13" t="n">
-        <v>2089.78766424944</v>
+        <v>2014.94514115895</v>
       </c>
       <c r="F13" t="n">
-        <v>2089.78766424944</v>
+        <v>2014.94514115895</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>1196</v>
       </c>
       <c r="I13" t="n">
-        <v>154.5552616251</v>
+        <v>151.143692688131</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>825.623964557905</v>
+        <v>824.094812602719</v>
       </c>
       <c r="C14" t="n">
-        <v>75.9160202377234</v>
+        <v>147.537187230837</v>
       </c>
       <c r="D14" t="n">
-        <v>75.9160202377234</v>
+        <v>147.537187230837</v>
       </c>
       <c r="E14" t="n">
-        <v>1587.5954172003</v>
+        <v>1514.31797299871</v>
       </c>
       <c r="F14" t="n">
-        <v>1587.5954172003</v>
+        <v>1514.31797299871</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>960</v>
       </c>
       <c r="I14" t="n">
-        <v>-134.376035442095</v>
+        <v>-135.905187397281</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>826.46025333616</v>
+        <v>792.981014881027</v>
       </c>
       <c r="C15" t="n">
-        <v>63.8514907966119</v>
+        <v>103.092526748467</v>
       </c>
       <c r="D15" t="n">
-        <v>63.8514907966119</v>
+        <v>103.092526748467</v>
       </c>
       <c r="E15" t="n">
-        <v>1599.81247487407</v>
+        <v>1490.8332529451</v>
       </c>
       <c r="F15" t="n">
-        <v>1599.81247487407</v>
+        <v>1490.8332529451</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>745</v>
       </c>
       <c r="I15" t="n">
-        <v>81.4602533361597</v>
+        <v>47.9810148810267</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>1496.74065487786</v>
+        <v>1467.67586219949</v>
       </c>
       <c r="C16" t="n">
-        <v>721.535936122214</v>
+        <v>769.434138296694</v>
       </c>
       <c r="D16" t="n">
-        <v>721.535936122214</v>
+        <v>769.434138296694</v>
       </c>
       <c r="E16" t="n">
-        <v>2215.35864840918</v>
+        <v>2114.60924950449</v>
       </c>
       <c r="F16" t="n">
-        <v>2215.35864840918</v>
+        <v>2114.60924950449</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>1128</v>
       </c>
       <c r="I16" t="n">
-        <v>368.740654877864</v>
+        <v>339.675862199488</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>1391.24392689882</v>
+        <v>1366.41160339774</v>
       </c>
       <c r="C17" t="n">
-        <v>622.191534661147</v>
+        <v>674.665523302484</v>
       </c>
       <c r="D17" t="n">
-        <v>622.191534661147</v>
+        <v>674.665523302484</v>
       </c>
       <c r="E17" t="n">
-        <v>2108.01705813617</v>
+        <v>2011.85993333155</v>
       </c>
       <c r="F17" t="n">
-        <v>2108.01705813617</v>
+        <v>2011.85993333155</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>1142</v>
       </c>
       <c r="I17" t="n">
-        <v>249.243926898818</v>
+        <v>224.41160339774</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>1379.12455777828</v>
+        <v>1360.88408765685</v>
       </c>
       <c r="C18" t="n">
-        <v>607.020458792488</v>
+        <v>665.073178373294</v>
       </c>
       <c r="D18" t="n">
-        <v>607.020458792488</v>
+        <v>665.073178373294</v>
       </c>
       <c r="E18" t="n">
-        <v>2145.74283303138</v>
+        <v>2052.22132542908</v>
       </c>
       <c r="F18" t="n">
-        <v>2145.74283303138</v>
+        <v>2052.22132542908</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>1095</v>
       </c>
       <c r="I18" t="n">
-        <v>284.124557778277</v>
+        <v>265.884087656854</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>1330.05137721256</v>
+        <v>1320.9816598186</v>
       </c>
       <c r="C19" t="n">
-        <v>561.597758203724</v>
+        <v>626.642321759379</v>
       </c>
       <c r="D19" t="n">
-        <v>561.597758203724</v>
+        <v>626.642321759379</v>
       </c>
       <c r="E19" t="n">
-        <v>2092.39092323527</v>
+        <v>2013.85137972708</v>
       </c>
       <c r="F19" t="n">
-        <v>2092.39092323527</v>
+        <v>2013.85137972708</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>1089</v>
       </c>
       <c r="I19" t="n">
-        <v>241.051377212564</v>
+        <v>231.981659818598</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>1490.58178464755</v>
+        <v>1488.46978116976</v>
       </c>
       <c r="C20" t="n">
-        <v>799.328020319057</v>
+        <v>866.012716959003</v>
       </c>
       <c r="D20" t="n">
-        <v>799.328020319057</v>
+        <v>866.012716959003</v>
       </c>
       <c r="E20" t="n">
-        <v>2254.95469135179</v>
+        <v>2177.06297928668</v>
       </c>
       <c r="F20" t="n">
-        <v>2254.95469135179</v>
+        <v>2177.06297928668</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>1038</v>
       </c>
       <c r="I20" t="n">
-        <v>452.581784647546</v>
+        <v>450.469781169764</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1584.09956875482</v>
+        <v>1581.36401042262</v>
       </c>
       <c r="C21" t="n">
-        <v>816.36692480293</v>
+        <v>882.980604447233</v>
       </c>
       <c r="D21" t="n">
-        <v>816.36692480293</v>
+        <v>882.980604447233</v>
       </c>
       <c r="E21" t="n">
-        <v>2343.05819235962</v>
+        <v>2265.91332971245</v>
       </c>
       <c r="F21" t="n">
-        <v>2343.05819235962</v>
+        <v>2265.91332971245</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>1057</v>
       </c>
       <c r="I21" t="n">
-        <v>527.099568754818</v>
+        <v>524.364010422624</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>1350.0806475277</v>
+        <v>1478.54448893763</v>
       </c>
       <c r="C22" t="n">
-        <v>552.262846366064</v>
+        <v>758.953430340444</v>
       </c>
       <c r="D22" t="n">
-        <v>552.262846366064</v>
+        <v>758.953430340444</v>
       </c>
       <c r="E22" t="n">
-        <v>2081.77988594927</v>
+        <v>2139.14305964497</v>
       </c>
       <c r="F22" t="n">
-        <v>2081.77988594927</v>
+        <v>2139.14305964497</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>1105</v>
       </c>
       <c r="I22" t="n">
-        <v>245.080647527705</v>
+        <v>373.544488937632</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1230.35156022993</v>
+        <v>1233.52780963079</v>
       </c>
       <c r="C23" t="n">
-        <v>462.184038040884</v>
+        <v>541.212124896923</v>
       </c>
       <c r="D23" t="n">
-        <v>462.184038040884</v>
+        <v>541.212124896923</v>
       </c>
       <c r="E23" t="n">
-        <v>2035.79862281365</v>
+        <v>1958.56735566512</v>
       </c>
       <c r="F23" t="n">
-        <v>2035.79862281365</v>
+        <v>1958.56735566512</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>940</v>
       </c>
       <c r="I23" t="n">
-        <v>290.351560229928</v>
+        <v>293.527809630793</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1232.15299656976</v>
+        <v>1226.20668675522</v>
       </c>
       <c r="C24" t="n">
-        <v>475.084717916004</v>
+        <v>541.304600408953</v>
       </c>
       <c r="D24" t="n">
-        <v>475.084717916004</v>
+        <v>541.304600408953</v>
       </c>
       <c r="E24" t="n">
-        <v>1958.05739343436</v>
+        <v>1883.60386257269</v>
       </c>
       <c r="F24" t="n">
-        <v>1958.05739343436</v>
+        <v>1883.60386257269</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>1026</v>
       </c>
       <c r="I24" t="n">
-        <v>206.152996569761</v>
+        <v>200.206686755218</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>1233.29295390302</v>
+        <v>1218.03740324184</v>
       </c>
       <c r="C25" t="n">
-        <v>465.569448045787</v>
+        <v>528.490602440645</v>
       </c>
       <c r="D25" t="n">
-        <v>465.569448045787</v>
+        <v>528.490602440645</v>
       </c>
       <c r="E25" t="n">
-        <v>1975.36413324558</v>
+        <v>1893.39383195001</v>
       </c>
       <c r="F25" t="n">
-        <v>1975.36413324558</v>
+        <v>1893.39383195001</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>1068</v>
       </c>
       <c r="I25" t="n">
-        <v>165.292953903024</v>
+        <v>150.037403241843</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>828.97236416634</v>
+        <v>814.260791827353</v>
       </c>
       <c r="C26" t="n">
-        <v>12.379526817093</v>
+        <v>77.0764371788608</v>
       </c>
       <c r="D26" t="n">
-        <v>12.379526817093</v>
+        <v>77.0764371788608</v>
       </c>
       <c r="E26" t="n">
-        <v>1582.02438442365</v>
+        <v>1493.63018369755</v>
       </c>
       <c r="F26" t="n">
-        <v>1582.02438442365</v>
+        <v>1493.63018369755</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>956</v>
       </c>
       <c r="I26" t="n">
-        <v>-127.02763583366</v>
+        <v>-141.739208172647</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>722.856920441759</v>
+        <v>697.888332474037</v>
       </c>
       <c r="C27" t="n">
-        <v>-73.8627900676112</v>
+        <v>-27.9799193272258</v>
       </c>
       <c r="D27" t="n">
-        <v>-73.8627900676112</v>
+        <v>-27.9799193272258</v>
       </c>
       <c r="E27" t="n">
-        <v>1506.94548727882</v>
+        <v>1413.13176748025</v>
       </c>
       <c r="F27" t="n">
-        <v>1506.94548727882</v>
+        <v>1413.13176748025</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>830</v>
       </c>
       <c r="I27" t="n">
-        <v>-107.143079558241</v>
+        <v>-132.111667525963</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>1344.63603438779</v>
+        <v>1334.82275738057</v>
       </c>
       <c r="C28" t="n">
-        <v>588.896853038332</v>
+        <v>653.411226135498</v>
       </c>
       <c r="D28" t="n">
-        <v>588.896853038332</v>
+        <v>653.411226135498</v>
       </c>
       <c r="E28" t="n">
-        <v>2059.34192189187</v>
+        <v>1982.14683159391</v>
       </c>
       <c r="F28" t="n">
-        <v>2059.34192189187</v>
+        <v>1982.14683159391</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>1050</v>
       </c>
       <c r="I28" t="n">
-        <v>294.636034387794</v>
+        <v>284.82275738057</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>1262.86098271661</v>
+        <v>1249.26649138677</v>
       </c>
       <c r="C29" t="n">
-        <v>518.822964059725</v>
+        <v>577.718190284752</v>
       </c>
       <c r="D29" t="n">
-        <v>518.822964059725</v>
+        <v>577.718190284752</v>
       </c>
       <c r="E29" t="n">
-        <v>2046.99917436336</v>
+        <v>1960.02997467289</v>
       </c>
       <c r="F29" t="n">
-        <v>2046.99917436336</v>
+        <v>1960.02997467289</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>896</v>
       </c>
       <c r="I29" t="n">
-        <v>366.860982716614</v>
+        <v>353.266491386773</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>1252.00836944861</v>
+        <v>1232.65492917081</v>
       </c>
       <c r="C30" t="n">
-        <v>432.713982321706</v>
+        <v>494.783953460623</v>
       </c>
       <c r="D30" t="n">
-        <v>432.713982321706</v>
+        <v>494.783953460623</v>
       </c>
       <c r="E30" t="n">
-        <v>2092.49638575773</v>
+        <v>1992.54445810198</v>
       </c>
       <c r="F30" t="n">
-        <v>2092.49638575773</v>
+        <v>1992.54445810198</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>960</v>
       </c>
       <c r="I30" t="n">
-        <v>292.008369448609</v>
+        <v>272.65492917081</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>1274.43901296269</v>
+        <v>1244.68480529429</v>
       </c>
       <c r="C31" t="n">
-        <v>414.364576708109</v>
+        <v>468.273808850669</v>
       </c>
       <c r="D31" t="n">
-        <v>414.364576708109</v>
+        <v>468.273808850669</v>
       </c>
       <c r="E31" t="n">
-        <v>2074.74858967396</v>
+        <v>1972.24572313515</v>
       </c>
       <c r="F31" t="n">
-        <v>2074.74858967396</v>
+        <v>1972.24572313515</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>1038</v>
       </c>
       <c r="I31" t="n">
-        <v>236.439012962688</v>
+        <v>206.684805294293</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>1471.42024543044</v>
+        <v>1433.48532390899</v>
       </c>
       <c r="C32" t="n">
-        <v>693.136562249701</v>
+        <v>732.266749067911</v>
       </c>
       <c r="D32" t="n">
-        <v>693.136562249701</v>
+        <v>732.266749067911</v>
       </c>
       <c r="E32" t="n">
-        <v>2250.332928498</v>
+        <v>2135.95682584419</v>
       </c>
       <c r="F32" t="n">
-        <v>2250.332928498</v>
+        <v>2135.95682584419</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>1069</v>
       </c>
       <c r="I32" t="n">
-        <v>402.420245430437</v>
+        <v>364.485323908994</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1518.16162601968</v>
+        <v>1477.98719666334</v>
       </c>
       <c r="C33" t="n">
-        <v>745.897876763721</v>
+        <v>773.642684746351</v>
       </c>
       <c r="D33" t="n">
-        <v>745.897876763721</v>
+        <v>773.642684746351</v>
       </c>
       <c r="E33" t="n">
-        <v>2287.07551101018</v>
+        <v>2174.31717905741</v>
       </c>
       <c r="F33" t="n">
-        <v>2287.07551101018</v>
+        <v>2174.31717905741</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>1116</v>
       </c>
       <c r="I33" t="n">
-        <v>402.161626019683</v>
+        <v>361.987196663338</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>1100.42383345822</v>
+        <v>1370.14845660655</v>
       </c>
       <c r="C34" t="n">
-        <v>321.276433862484</v>
+        <v>656.394778648254</v>
       </c>
       <c r="D34" t="n">
-        <v>321.276433862484</v>
+        <v>656.394778648254</v>
       </c>
       <c r="E34" t="n">
-        <v>1892.92669277638</v>
+        <v>2097.7087794303</v>
       </c>
       <c r="F34" t="n">
-        <v>1892.92669277638</v>
+        <v>2097.7087794303</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>945</v>
       </c>
       <c r="I34" t="n">
-        <v>155.423833458224</v>
+        <v>425.148456606548</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1154.8256337608</v>
+        <v>1114.18732629572</v>
       </c>
       <c r="C35" t="n">
-        <v>317.696014657348</v>
+        <v>360.821773259895</v>
       </c>
       <c r="D35" t="n">
-        <v>317.696014657348</v>
+        <v>360.821773259895</v>
       </c>
       <c r="E35" t="n">
-        <v>1964.3527649226</v>
+        <v>1846.81998103043</v>
       </c>
       <c r="F35" t="n">
-        <v>1964.3527649226</v>
+        <v>1846.81998103043</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>752</v>
       </c>
       <c r="I35" t="n">
-        <v>402.825633760798</v>
+        <v>362.18732629572</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1144.19048380517</v>
+        <v>1109.38316624963</v>
       </c>
       <c r="C36" t="n">
-        <v>394.260991702465</v>
+        <v>431.385184269252</v>
       </c>
       <c r="D36" t="n">
-        <v>394.260991702465</v>
+        <v>431.385184269252</v>
       </c>
       <c r="E36" t="n">
-        <v>1965.01535585016</v>
+        <v>1851.52460229203</v>
       </c>
       <c r="F36" t="n">
-        <v>1965.01535585016</v>
+        <v>1851.52460229203</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>749</v>
       </c>
       <c r="I36" t="n">
-        <v>395.190483805172</v>
+        <v>360.383166249626</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>1117.30653931223</v>
+        <v>1090.54291955517</v>
       </c>
       <c r="C37" t="n">
-        <v>315.800348430657</v>
+        <v>360.287747780757</v>
       </c>
       <c r="D37" t="n">
-        <v>315.800348430657</v>
+        <v>360.287747780757</v>
       </c>
       <c r="E37" t="n">
-        <v>1891.96674865368</v>
+        <v>1798.99840931243</v>
       </c>
       <c r="F37" t="n">
-        <v>1891.96674865368</v>
+        <v>1798.99840931243</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>532</v>
       </c>
       <c r="I37" t="n">
-        <v>585.306539312232</v>
+        <v>558.542919555169</v>
       </c>
       <c r="J37" t="s">
         <v>12</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>832.249765378082</v>
+        <v>804.987329082251</v>
       </c>
       <c r="C38" t="n">
-        <v>14.3157460284403</v>
+        <v>58.9669683314481</v>
       </c>
       <c r="D38" t="n">
-        <v>14.3157460284403</v>
+        <v>58.9669683314481</v>
       </c>
       <c r="E38" t="n">
-        <v>1657.58430251495</v>
+        <v>1551.14400776031</v>
       </c>
       <c r="F38" t="n">
-        <v>1657.58430251495</v>
+        <v>1551.14400776031</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>523</v>
       </c>
       <c r="I38" t="n">
-        <v>309.249765378082</v>
+        <v>281.987329082251</v>
       </c>
       <c r="J38" t="s">
         <v>12</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>617.172993617043</v>
+        <v>601.406134804361</v>
       </c>
       <c r="C39" t="n">
-        <v>-147.539502803283</v>
+        <v>-94.0775651999212</v>
       </c>
       <c r="D39" t="n">
-        <v>-147.539502803283</v>
+        <v>-94.0775651999212</v>
       </c>
       <c r="E39" t="n">
-        <v>1425.1418405457</v>
+        <v>1339.23213879883</v>
       </c>
       <c r="F39" t="n">
-        <v>1425.1418405457</v>
+        <v>1339.23213879883</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>850</v>
       </c>
       <c r="I39" t="n">
-        <v>-232.827006382957</v>
+        <v>-248.593865195639</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>1191.85578182958</v>
+        <v>1201.22997406506</v>
       </c>
       <c r="C40" t="n">
-        <v>400.167275986941</v>
+        <v>484.342472320307</v>
       </c>
       <c r="D40" t="n">
-        <v>400.167275986941</v>
+        <v>484.342472320307</v>
       </c>
       <c r="E40" t="n">
-        <v>1981.53525252416</v>
+        <v>1923.48603977502</v>
       </c>
       <c r="F40" t="n">
-        <v>1981.53525252416</v>
+        <v>1923.48603977502</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>1289</v>
       </c>
       <c r="I40" t="n">
-        <v>-97.1442181704183</v>
+        <v>-87.7700259349353</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>1135.15458692034</v>
+        <v>1132.2489849175</v>
       </c>
       <c r="C41" t="n">
-        <v>336.563491943771</v>
+        <v>409.838972908331</v>
       </c>
       <c r="D41" t="n">
-        <v>336.563491943771</v>
+        <v>409.838972908331</v>
       </c>
       <c r="E41" t="n">
-        <v>1997.03314438009</v>
+        <v>1924.16567668549</v>
       </c>
       <c r="F41" t="n">
-        <v>1997.03314438009</v>
+        <v>1924.16567668549</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>1114</v>
       </c>
       <c r="I41" t="n">
-        <v>21.1545869203449</v>
+        <v>18.2489849175038</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>1126.73218733683</v>
+        <v>1105.47454224218</v>
       </c>
       <c r="C42" t="n">
-        <v>235.355437925524</v>
+        <v>306.55556218848</v>
       </c>
       <c r="D42" t="n">
-        <v>235.355437925524</v>
+        <v>306.55556218848</v>
       </c>
       <c r="E42" t="n">
-        <v>1973.39447768081</v>
+        <v>1882.70190620912</v>
       </c>
       <c r="F42" t="n">
-        <v>1973.39447768081</v>
+        <v>1882.70190620912</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>1076</v>
       </c>
       <c r="I42" t="n">
-        <v>50.7321873368314</v>
+        <v>29.4745422421831</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>1220.65241062252</v>
+        <v>1169.64942749437</v>
       </c>
       <c r="C43" t="n">
-        <v>443.690860724308</v>
+        <v>463.894536396315</v>
       </c>
       <c r="D43" t="n">
-        <v>443.690860724308</v>
+        <v>463.894536396315</v>
       </c>
       <c r="E43" t="n">
-        <v>2015.37099888314</v>
+        <v>1891.13961319162</v>
       </c>
       <c r="F43" t="n">
-        <v>2015.37099888314</v>
+        <v>1891.13961319162</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>944</v>
       </c>
       <c r="I43" t="n">
-        <v>276.652410622515</v>
+        <v>225.649427494374</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>1451.30099208221</v>
+        <v>1378.0592637874</v>
       </c>
       <c r="C44" t="n">
-        <v>586.657305836798</v>
+        <v>598.334899630454</v>
       </c>
       <c r="D44" t="n">
-        <v>586.657305836798</v>
+        <v>598.334899630454</v>
       </c>
       <c r="E44" t="n">
-        <v>2270.36369091441</v>
+        <v>2127.15685800749</v>
       </c>
       <c r="F44" t="n">
-        <v>2270.36369091441</v>
+        <v>2127.15685800749</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>1053</v>
       </c>
       <c r="I44" t="n">
-        <v>398.300992082209</v>
+        <v>325.059263787397</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>1448.56430422614</v>
+        <v>1373.48716994352</v>
       </c>
       <c r="C45" t="n">
-        <v>608.388020268286</v>
+        <v>611.930716818288</v>
       </c>
       <c r="D45" t="n">
-        <v>608.388020268286</v>
+        <v>611.930716818288</v>
       </c>
       <c r="E45" t="n">
-        <v>2279.35494052806</v>
+        <v>2127.2881981477</v>
       </c>
       <c r="F45" t="n">
-        <v>2279.35494052806</v>
+        <v>2127.2881981477</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>1111</v>
       </c>
       <c r="I45" t="n">
-        <v>337.564304226139</v>
+        <v>262.487169943522</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>850.112962295564</v>
+        <v>1261.0628553439</v>
       </c>
       <c r="C46" t="n">
-        <v>8.98640939245926</v>
+        <v>493.065088701467</v>
       </c>
       <c r="D46" t="n">
-        <v>8.98640939245926</v>
+        <v>493.065088701467</v>
       </c>
       <c r="E46" t="n">
-        <v>1708.72963338188</v>
+        <v>2041.54217250436</v>
       </c>
       <c r="F46" t="n">
-        <v>1708.72963338188</v>
+        <v>2041.54217250436</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,10 +1856,10 @@
         <v>1038</v>
       </c>
       <c r="I46" t="n">
-        <v>-187.887037704436</v>
+        <v>223.0628553439</v>
       </c>
       <c r="J46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1081.46130897164</v>
+        <v>994.758758161453</v>
       </c>
       <c r="C47" t="n">
-        <v>291.428930846076</v>
+        <v>273.188862439406</v>
       </c>
       <c r="D47" t="n">
-        <v>291.428930846076</v>
+        <v>273.188862439406</v>
       </c>
       <c r="E47" t="n">
-        <v>1877.21643536063</v>
+        <v>1728.51506064876</v>
       </c>
       <c r="F47" t="n">
-        <v>1877.21643536063</v>
+        <v>1728.51506064876</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>986</v>
       </c>
       <c r="I47" t="n">
-        <v>95.4613089716431</v>
+        <v>8.75875816145265</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>1056.84456231807</v>
+        <v>992.92335358461</v>
       </c>
       <c r="C48" t="n">
-        <v>186.801118959749</v>
+        <v>195.910555408851</v>
       </c>
       <c r="D48" t="n">
-        <v>186.801118959749</v>
+        <v>195.910555408851</v>
       </c>
       <c r="E48" t="n">
-        <v>1910.02769832602</v>
+        <v>1766.22825005798</v>
       </c>
       <c r="F48" t="n">
-        <v>1910.02769832602</v>
+        <v>1766.22825005798</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,10 +1920,10 @@
         <v>1056</v>
       </c>
       <c r="I48" t="n">
-        <v>0.844562318071894</v>
+        <v>-63.0766464153904</v>
       </c>
       <c r="J48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>1002.57971058058</v>
+        <v>964.67207667121</v>
       </c>
       <c r="C49" t="n">
-        <v>146.37209556935</v>
+        <v>191.119760993216</v>
       </c>
       <c r="D49" t="n">
-        <v>146.37209556935</v>
+        <v>191.119760993216</v>
       </c>
       <c r="E49" t="n">
-        <v>1824.311771027</v>
+        <v>1705.93335676843</v>
       </c>
       <c r="F49" t="n">
-        <v>1824.311771027</v>
+        <v>1705.93335676843</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,10 +1952,10 @@
         <v>975</v>
       </c>
       <c r="I49" t="n">
-        <v>27.5797105805758</v>
+        <v>-10.3279233287897</v>
       </c>
       <c r="J49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
